--- a/data/reports/W50_2025.xlsx
+++ b/data/reports/W50_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8772E4D2-A0BD-42BE-82F9-032376DF5954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA295C1-FDFB-431B-9CCF-5F96C737A05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>Last updated 9 12, 00:25 ICT</t>
-  </si>
-  <si>
     <t xml:space="preserve"> | 2 Dec - 9 Dec 2025</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Meta extra assets</t>
+  </si>
+  <si>
+    <t>Last updated 9 Dec, 00:25 ICT</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -712,13 +712,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>34</v>
@@ -763,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
@@ -772,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
@@ -831,7 +831,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
@@ -840,7 +840,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -874,7 +874,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -882,7 +882,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>8</v>
@@ -891,7 +891,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -899,7 +899,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>8</v>
@@ -908,7 +908,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -916,7 +916,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>8</v>
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -933,7 +933,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>16</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>16</v>
@@ -956,15 +956,15 @@
         <v>19</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>16</v>
@@ -973,15 +973,15 @@
         <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>16</v>
@@ -990,7 +990,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1066,7 +1066,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
